--- a/refs/20210601_Liste_Mesures_Liens.xlsx
+++ b/refs/20210601_Liste_Mesures_Liens.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="110">
   <si>
     <t xml:space="preserve">Volet</t>
   </si>
   <si>
+    <t xml:space="preserve">code_mesure</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mesures</t>
   </si>
   <si>
@@ -43,6 +46,9 @@
     <t xml:space="preserve">Ecologie</t>
   </si>
   <si>
+    <t xml:space="preserve">MPR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ma Prime Renov'</t>
   </si>
   <si>
@@ -64,6 +70,9 @@
     <t xml:space="preserve">Nombre de dossiers MaPrimeRénov' payés</t>
   </si>
   <si>
+    <t xml:space="preserve">BOE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bonus électrique</t>
   </si>
   <si>
@@ -73,6 +82,9 @@
     <t xml:space="preserve">https://www.economie.gouv.fr/plan-de-relance/profils/entreprises/bonus-ecologique </t>
   </si>
   <si>
+    <t xml:space="preserve">DVP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prime à la conversion des véhicules légers</t>
   </si>
   <si>
@@ -82,6 +94,9 @@
     <t xml:space="preserve">https://www.ecologie.gouv.fr/france-relance-bonus-ecologique-et-prime-conversion</t>
   </si>
   <si>
+    <t xml:space="preserve">RBE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rénovation des bâtiments</t>
   </si>
   <si>
@@ -100,6 +115,9 @@
     <t xml:space="preserve">Nombre de structures agricoles bénéficiaires de la prime à la conversion des agroéquipements - AEA</t>
   </si>
   <si>
+    <t xml:space="preserve">SIL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Soutien à l'investissement local (DSIL exceptionnelle)</t>
   </si>
   <si>
@@ -109,6 +127,9 @@
     <t xml:space="preserve">https://www.economie.gouv.fr/plan-de-relance/profils/collectivites/dotation-soutien-investissement-local-dsil</t>
   </si>
   <si>
+    <t xml:space="preserve">FFR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fonds friches (projet urbain)(MTE)</t>
   </si>
   <si>
@@ -118,6 +139,9 @@
     <t xml:space="preserve">https://www.economie.gouv.fr/plan-de-relance/profils/entreprises/fonds-recyclage-friches </t>
   </si>
   <si>
+    <t xml:space="preserve">FAA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Soutien aux fonds propres des filières aéro et auto</t>
   </si>
   <si>
@@ -130,6 +154,9 @@
     <t xml:space="preserve">Compétitivité</t>
   </si>
   <si>
+    <t xml:space="preserve">IDF</t>
+  </si>
+  <si>
     <t xml:space="preserve">Industrie du futur</t>
   </si>
   <si>
@@ -145,6 +172,9 @@
     <t xml:space="preserve">Montant total de l’investissement ainsi déclenché - IDF</t>
   </si>
   <si>
+    <t xml:space="preserve">PIT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Relocalisation : soutien aux projets industriels dans les territoires</t>
   </si>
   <si>
@@ -154,6 +184,9 @@
     <t xml:space="preserve">https://www.entreprises.gouv.fr/fr/industrie/politique-industrielle/territoires-d-industrie</t>
   </si>
   <si>
+    <t xml:space="preserve">SAC</t>
+  </si>
+  <si>
     <t xml:space="preserve">Relocalisation : sécurisation des approvisionnements critiques</t>
   </si>
   <si>
@@ -172,6 +205,9 @@
     <t xml:space="preserve">Nombnre de TPE/PME</t>
   </si>
   <si>
+    <t xml:space="preserve">FUM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mise à jour numérique des TPE/PME</t>
   </si>
   <si>
@@ -181,6 +217,9 @@
     <t xml:space="preserve">https://www.economie.gouv.fr/plan-de-relance/profils/entreprises/aides-francenum-transformation-numerique</t>
   </si>
   <si>
+    <t xml:space="preserve">SBF</t>
+  </si>
+  <si>
     <t xml:space="preserve">Renforcement subventions Business France</t>
   </si>
   <si>
@@ -193,6 +232,9 @@
     <t xml:space="preserve">Nombre de TPE,PME,ETI bénéficiaires</t>
   </si>
   <si>
+    <t xml:space="preserve">PAT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rénovation des monuments du patrimoine des collectivités  locales (culture)</t>
   </si>
   <si>
@@ -211,6 +253,9 @@
     <t xml:space="preserve">Cohésion</t>
   </si>
   <si>
+    <t xml:space="preserve">APP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Apprentissage</t>
   </si>
   <si>
@@ -220,6 +265,9 @@
     <t xml:space="preserve">https://travail-emploi.gouv.fr/demarches-ressources-documentaires/documentation-et-publications-officielles/guides/article/plan-de-relance-de-l-apprentissage-guide-pratique-pour-les-entreprises</t>
   </si>
   <si>
+    <t xml:space="preserve">PEJ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prime à l’embauche des jeunes</t>
   </si>
   <si>
@@ -229,6 +277,9 @@
     <t xml:space="preserve">https://www.economie.gouv.fr/plan-de-relance/profils/entreprises/aide-embauche-jeunes</t>
   </si>
   <si>
+    <t xml:space="preserve">CIE</t>
+  </si>
+  <si>
     <t xml:space="preserve">CIE jeunes</t>
   </si>
   <si>
@@ -238,6 +289,9 @@
     <t xml:space="preserve">https://www.economie.gouv.fr/plan-de-relance/profils/entreprises/aide-embauche-jeune-contrat-initiative-emploi-cie</t>
   </si>
   <si>
+    <t xml:space="preserve">PEC</t>
+  </si>
+  <si>
     <t xml:space="preserve">PEC jeunes</t>
   </si>
   <si>
@@ -247,6 +301,9 @@
     <t xml:space="preserve">https://www.economie.gouv.fr/plan-de-relance/insertion-personnes-eloignees-emploi-pec</t>
   </si>
   <si>
+    <t xml:space="preserve">CDP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Contrat de professionnalisation</t>
   </si>
   <si>
@@ -256,22 +313,34 @@
     <t xml:space="preserve">https://travail-emploi.gouv.fr/formation-professionnelle/entreprise-et-alternance/aide-exceptionnelle-contrat-pro</t>
   </si>
   <si>
+    <t xml:space="preserve">GJE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Garantie jeune</t>
   </si>
   <si>
     <t xml:space="preserve">https://travail-emploi.gouv.fr/emploi/mesures-jeunes/garantiejeunes/ </t>
   </si>
   <si>
+    <t xml:space="preserve">SCI</t>
+  </si>
+  <si>
     <t xml:space="preserve">Service civique</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.economie.gouv.fr/plan-de-relance/profils/administrations/financement-nouvelles-missions-service-civique</t>
   </si>
   <si>
+    <t xml:space="preserve">PTH</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prime à l'embauche des travailleurs handicapés</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.economie.gouv.fr/entreprises/aide-mobilisation-employeurs-embauche-travailleurs-handicapes-plan-relance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBC</t>
   </si>
   <si>
     <t xml:space="preserve">Rénovation thermique des bâtiments publics soutenus par la DSIL, DSID, DRI</t>
@@ -334,6 +403,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -520,21 +590,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="114.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="6" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="32.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="114.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -553,589 +622,670 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>10</v>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="n">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5" t="n">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5" t="n">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="n">
         <v>90</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>16</v>
+      <c r="F6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5" t="n">
         <v>89</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>19</v>
+      <c r="F7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>23</v>
+      <c r="F8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="5" t="n">
         <v>72</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
-      <c r="B10" s="7" t="s">
-        <v>26</v>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>28</v>
+      <c r="F10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
-      <c r="B11" s="7" t="s">
-        <v>29</v>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>31</v>
+      <c r="F11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
-      <c r="B12" s="7" t="s">
-        <v>32</v>
+      <c r="B12" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="5" t="n">
         <v>105</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>34</v>
+      <c r="F12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="5" t="n">
         <v>157</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>38</v>
+      <c r="F13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="5" t="n">
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="5" t="n">
         <v>158</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="5" t="n">
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="5" t="n">
         <v>159</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
-      <c r="B16" s="4" t="s">
-        <v>41</v>
+      <c r="B16" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="5" t="n">
         <v>151</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>43</v>
+      <c r="F16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
-        <v>44</v>
+      <c r="B17" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="5" t="n">
         <v>148</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>46</v>
+      <c r="F17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
-      <c r="B18" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="B18" s="3"/>
       <c r="C18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="5" t="n">
+        <v>58</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="5" t="n">
         <v>129</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="8"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="5" t="n">
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="5" t="n">
         <v>131</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
-        <v>50</v>
+      <c r="B20" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="5" t="n">
         <v>162</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>52</v>
+      <c r="F20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
-      <c r="B21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>55</v>
+      <c r="B21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="6"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>156</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3"/>
-      <c r="B23" s="4" t="s">
-        <v>57</v>
+      <c r="B23" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="5" t="n">
+        <v>71</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="5" t="n">
         <v>170</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>58</v>
+      <c r="F23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="5" t="n">
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="5" t="n">
         <v>171</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="6"/>
+      <c r="F24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3"/>
-      <c r="B25" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="B25" s="3"/>
       <c r="C25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="5"/>
+        <v>74</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>63</v>
+        <v>76</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="5" t="n">
+        <v>78</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>65</v>
+      <c r="F26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
-      <c r="B27" s="4" t="s">
-        <v>66</v>
+      <c r="B27" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="5" t="n">
+        <v>82</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>68</v>
+      <c r="F27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
-      <c r="B28" s="4" t="s">
-        <v>69</v>
+      <c r="B28" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="5" t="n">
+        <v>86</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>71</v>
+      <c r="F28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3"/>
-      <c r="B29" s="4" t="s">
-        <v>72</v>
+      <c r="B29" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="5" t="n">
+        <v>90</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>74</v>
+      <c r="F29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
-      <c r="B30" s="4" t="s">
-        <v>75</v>
+      <c r="B30" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="5" t="n">
+        <v>94</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>77</v>
+      <c r="F30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
-      <c r="B31" s="4" t="s">
-        <v>78</v>
+      <c r="B31" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="5" t="n">
+        <v>98</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>79</v>
+      <c r="F31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
-      <c r="B32" s="4" t="s">
-        <v>80</v>
+      <c r="B32" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="5" t="n">
+        <v>101</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>81</v>
+      <c r="F32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3"/>
-      <c r="B33" s="4" t="s">
-        <v>82</v>
+      <c r="B33" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="5" t="n">
+        <v>104</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>83</v>
+      <c r="F33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
-      <c r="B34" s="4" t="s">
-        <v>84</v>
+      <c r="B34" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="5" t="n">
+        <v>107</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>86</v>
+      <c r="F34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E35" s="1"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="G2:G5"/>
     <mergeCell ref="A13:A25"/>
     <mergeCell ref="B13:B15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="G23:G24"/>
     <mergeCell ref="A26:A34"/>
-    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://www.economie.gouv.fr/plan-de-relance/profils/particuliers/maprimerenov"/>
-    <hyperlink ref="F6" r:id="rId2" display="https://www.economie.gouv.fr/plan-de-relance/profils/entreprises/bonus-ecologique "/>
-    <hyperlink ref="F11" r:id="rId3" display="https://www.economie.gouv.fr/plan-de-relance/profils/entreprises/fonds-recyclage-friches "/>
-    <hyperlink ref="F12" r:id="rId4" display="https://www.entreprises.gouv.fr/fr/actualites/industrie/fonds-de-soutien-aux-filieres-automobile-et-aeronautique-205-nouveaux-laureats"/>
-    <hyperlink ref="F21" r:id="rId5" display="https://www.economie.gouv.fr/files/files/directions_services/plan-de-relance/Guide-mesures-relance-exportations.pdf"/>
-    <hyperlink ref="F23" r:id="rId6" display="https://www.culture.gouv.fr/Presse/Communiques-de-presse/160-millions-d-euros-pour-relancer-l-investissement-dans-les-territoires"/>
-    <hyperlink ref="F31" r:id="rId7" display="https://travail-emploi.gouv.fr/emploi/mesures-jeunes/garantiejeunes/ "/>
+    <hyperlink ref="G2" r:id="rId1" display="https://www.economie.gouv.fr/plan-de-relance/profils/particuliers/maprimerenov"/>
+    <hyperlink ref="G6" r:id="rId2" display="https://www.economie.gouv.fr/plan-de-relance/profils/entreprises/bonus-ecologique "/>
+    <hyperlink ref="G11" r:id="rId3" display="https://www.economie.gouv.fr/plan-de-relance/profils/entreprises/fonds-recyclage-friches "/>
+    <hyperlink ref="G12" r:id="rId4" display="https://www.entreprises.gouv.fr/fr/actualites/industrie/fonds-de-soutien-aux-filieres-automobile-et-aeronautique-205-nouveaux-laureats"/>
+    <hyperlink ref="G21" r:id="rId5" display="https://www.economie.gouv.fr/files/files/directions_services/plan-de-relance/Guide-mesures-relance-exportations.pdf"/>
+    <hyperlink ref="G23" r:id="rId6" display="https://www.culture.gouv.fr/Presse/Communiques-de-presse/160-millions-d-euros-pour-relancer-l-investissement-dans-les-territoires"/>
+    <hyperlink ref="G31" r:id="rId7" display="https://travail-emploi.gouv.fr/emploi/mesures-jeunes/garantiejeunes/ "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
